--- a/data/tbl_one.xlsx
+++ b/data/tbl_one.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grigorijschleifer/Desktop/R/EJA-ESAIC-survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC87F3FD-E21C-764C-AB78-3CB750B0BD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73FB54D-376F-AC42-972C-441EE43B75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48080" windowHeight="30740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GDP stratified" sheetId="1" r:id="rId1"/>
+    <sheet name="GDP_PER_CAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
-  <si>
-    <t>High.GDP</t>
-  </si>
-  <si>
-    <t>Low.GDP</t>
-  </si>
-  <si>
-    <t>Middle.GDP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="165">
+  <si>
+    <t>High_GDP_PC</t>
+  </si>
+  <si>
+    <t>Low_GDP_PC</t>
+  </si>
+  <si>
+    <t>Middle_GDP_PC</t>
   </si>
   <si>
     <t>p</t>
@@ -181,370 +181,340 @@
     <t>X...Yes.7</t>
   </si>
   <si>
-    <t>X.Together.with.special.designed.written.information.and.professional.pre.produced.videos.it.might.be.more.efficient.than.face.to.face.meeting..What.could.be.a.major.advantage.of.online.telephone.interviews...More.than.one.answer.is.possible....Yes....</t>
-  </si>
-  <si>
-    <t>552</t>
+    <t>454</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">344 (76.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40 ( 8.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54 (11.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 ( 3.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">171 (35.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (32.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99 (20.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54 (11.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80 (16.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">175 (36.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98 (20.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">126 (26.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">174 (36.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">208 (43.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97 (20.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 (30.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">170 (35.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">161 (33.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">146 (30.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">144 (30.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">188 (39.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">116 (24.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 (53.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">109 (22.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22 ( 5.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">288 (70.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99 (24.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 ( 4.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">217 (53.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">170 (41.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 ( 8.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">233 (57.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">141 (34.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33 ( 8.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">132 (32.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">243 (59.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">171 (41.8) </t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90 (81.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6 ( 5.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 ( 9.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5 ( 4.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33 (29.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34 (30.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26 (23.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 (17.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9 ( 8.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 (31.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15 (13.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54 (47.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47 (41.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52 (46.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 (12.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45 (39.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53 (46.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43 (38.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18 (15.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 (18.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79 (69.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 (11.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 (10.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71 (70.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19 (18.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67 (66.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 (22.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 (10.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72 (72.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18 (18.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6 ( 6.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37 (37.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57 (57.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29 (28.7) </t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (80.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 ( 5.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24 (12.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3 ( 1.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 65 (31.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55 (26.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44 (21.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 ( 6.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71 (34.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39 (18.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83 (40.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90 (42.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81 (38.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39 (18.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92 (43.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75 (35.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43 (20.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90 (43.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66 (31.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51 (24.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 65 (31.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">116 (55.5) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28 (13.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 ( 7.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">127 (69.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42 (23.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 ( 6.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">107 (58.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64 (35.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15 ( 8.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">119 (66.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46 (25.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 ( 7.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53 (29.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">114 (63.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59 (32.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.414</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.031</t>
+    <t xml:space="preserve">269 (75.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 (10.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 (11.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ( 2.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 (31.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">126 (32.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77 (19.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65 (16.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41 (10.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">134 (34.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78 (20.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 (34.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">152 (38.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">130 (33.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 (28.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136 (34.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92 (23.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">164 (41.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 (33.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70 (18.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">187 (48.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">109 (27.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">203 (51.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80 (20.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 ( 7.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">222 (66.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89 (26.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 ( 6.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">139 (41.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 (52.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 ( 8.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">169 (50.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 ( 9.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99 (29.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 (61.3) </t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 (83.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 2.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 (10.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 3.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 (30.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42 (34.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34 (27.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ( 7.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 (11.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 (39.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 (21.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 (28.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46 (37.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68 (55.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ( 7.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 (36.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69 (56.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 (32.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 (23.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89 (72.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ( 4.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 3.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83 (78.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 (17.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78 (73.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 (22.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ( 5.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86 (81.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 (13.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 2.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43 (41.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59 (56.2) </t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216 (79.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 ( 5.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 (12.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ( 2.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">108 (38.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75 (26.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57 (20.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44 (15.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 (16.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97 (34.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47 (16.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93 (32.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 (39.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">143 (50.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 (10.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 (35.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">137 (48.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 (15.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 (37.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 (43.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 (19.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64 (22.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">156 (54.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 ( 7.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 (73.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49 (19.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 ( 6.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">173 (70.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 (22.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 (11.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">168 (68.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 (20.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 ( 7.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79 (32.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">149 (60.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.198</t>
   </si>
   <si>
     <t>&lt;0.001</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.306</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.712</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.013</t>
+    <t xml:space="preserve"> 0.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.114</t>
   </si>
 </sst>
 </file>
@@ -896,18 +866,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AH32" sqref="AH32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -934,19 +904,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -954,19 +924,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -974,19 +944,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,19 +964,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1014,19 +984,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1034,19 +1004,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1054,19 +1024,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,19 +1044,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1094,19 +1064,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,19 +1084,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,19 +1104,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1154,19 +1124,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,19 +1144,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,19 +1164,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1214,19 +1184,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1234,19 +1204,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1254,19 +1224,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1274,19 +1244,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1294,19 +1264,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1314,19 +1284,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1334,19 +1304,19 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,19 +1324,19 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1374,19 +1344,19 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1394,19 +1364,19 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1414,19 +1384,19 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1434,19 +1404,19 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1454,19 +1424,19 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1474,19 +1444,19 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1494,19 +1464,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1514,19 +1484,19 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1534,19 +1504,19 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1554,19 +1524,19 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1574,19 +1544,19 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1594,19 +1564,19 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1614,19 +1584,19 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1634,19 +1604,19 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1654,19 +1624,19 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1674,19 +1644,19 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1694,19 +1664,19 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,19 +1684,19 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1734,19 +1704,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1754,19 +1724,19 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1774,19 +1744,19 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,19 +1764,19 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1814,19 +1784,19 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1834,19 +1804,19 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1854,19 +1824,19 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1874,39 +1844,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
